--- a/noba_simdata/Biomass.xlsx
+++ b/noba_simdata/Biomass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Howard.Townsend\Documents\EM Toolbox\MSSPM Projects\MSSPM-Keyruns\noba_simdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7C206BA-94CA-4B34-800B-73163DF3F093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{470CF78A-129A-44D3-874F-6334D9E40262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
@@ -539,8 +539,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -896,6305 +900,6321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:Q147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1175091.7766078999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1887085.90905127</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>110926.86618929599</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>219409.423429491</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>126059.393630384</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>531040.13064010302</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>1615415.7417542301</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>586997.77096404904</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>305090.73481712298</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>1040077.31277847</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>573793.13844696805</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1585099.66697369</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2490374.6863652798</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>192068.56408577799</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>323114.78261567903</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>188971.880049575</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>799843.30229082005</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>2222934.63991248</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>738899.30214429495</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>297176.95021935197</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>1277730.49245256</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>1043474.5292886</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2770014.2426202302</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2679666.1090856101</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>249535.34427600799</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>393903.39763431798</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>281727.27733420598</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1409433.0428837801</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>2884328.2733332799</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>995462.35771151294</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>418271.991786436</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>1276245.2579729201</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>1186086.38227259</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4817779.4804774998</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1761979.81400417</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>401605.13206454698</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>434149.36246494798</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>302114.18177722802</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>1753495.2497968499</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>3889234.71394858</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>893277.39289868402</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>457038.08742258901</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>1288797.8053041401</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>1711474.40434384</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>5631633.6180771301</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1820401.29116196</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>426507.66015012102</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>502531.31853385299</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>299102.685347119</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>1954881.06298562</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>3895056.09172404</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>1169032.4053421</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>601907.30159068096</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>1279210.8840372199</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>2173711.2571941898</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>6986609.9375206996</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1144492.34552141</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>574811.23112586804</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>626281.37880360603</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>350056.47511353402</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>2797382.9457382099</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>3910868.0784637202</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>1310448.8481422199</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>581181.50285906496</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>1304785.4349105801</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>3205599.06887369</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>7738513.5991441105</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1465394.5690782</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>854158.06869124004</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>460547.96179051202</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>385463.16185359098</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>2925306.6223699702</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>5060299.5837388104</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>1393496.0475504401</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>750239.19677590101</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>1921434.2536708</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>4302708.1304219002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>9288219.2165361699</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>2491643.7464330099</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>792423.36987304501</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>532781.31377128197</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>477920.99567678798</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>3911063.2339145401</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>5587988.4504401498</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>1298530.92797095</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>832996.31263636402</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>1360248.68016878</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>5172941.9198829597</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>7980611.4107632302</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2747090.5704894098</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>970339.37051398598</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>438708.97194643499</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>520397.52128390101</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>3460371.3146708002</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>7292986.6552113499</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>1681896.6434384</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>903921.59003590804</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>1653082.8833675501</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>4602751.9103771299</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>11407235.395817799</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2943152.0857081302</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>968539.83902420895</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>520917.012562402</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>449214.32682344399</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>4447341.2409853199</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>5815820.4570736596</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>1783492.06639456</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>964330.94174610602</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>1924688.2212006</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>6830777.35096996</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>10481453.691521</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>2614100.0636172802</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1051889.28903808</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>527073.25385289802</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>513567.37005862099</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>4244276.9387588399</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>6576863.0698291501</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>2010087.6984315601</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>1005330.23678089</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>1951141.85704464</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>7636265.5664580204</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>12806163.8106697</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>2885652.2525848201</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>983015.39102586103</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>532950.19956837595</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>553607.35064857302</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>5054479.9423183696</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>7770087.4880924597</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>2135983.0852248198</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>1463002.9695348199</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>2230296.8706419002</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>8615406.6826362591</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>13456756.586092699</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>3371196.34203383</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>1031932.26083565</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>509897.13029400201</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>628583.45294689096</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>4959734.7830288298</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>7521164.3590097101</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>1967199.01599198</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>1330764.19177962</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>2153899.9581892202</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>10072455.7606951</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>13423794.823751399</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>3594479.5369072701</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>1019550.64080791</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>515448.05679086101</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>751705.50967250299</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>6037410.4390754802</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>7997864.9415934803</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>2356558.05639135</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>1412288.0728392201</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>2271172.29867606</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>9434952.742509</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>11326681.9035413</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>2733780.3158211699</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1020916.5814865601</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>463414.32353815401</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>717205.83148565702</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>5757778.9998884797</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>6840544.7587484904</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>2180725.4562693001</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>1390401.9344732601</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>2623208.5415371498</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>9207179.2535513509</v>
       </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>9729316.7606970202</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>2212865.4990604799</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>982895.98843971395</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>299030.45194692299</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>936187.94394700602</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>4127096.5697208499</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>4882327.3668539701</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>1843758.71560414</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>1506632.6199280201</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>2780970.3581704302</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>7694831.4558242103</v>
       </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>8283020.9732451197</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>4279709.0832364801</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>974108.21910410596</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>248316.24944110899</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>798498.744766369</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>4605501.5864891503</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>6253575.9681122098</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>1836208.79614858</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>1910195.6428088399</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>2928772.3270233902</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>8221410.5377167398</v>
       </c>
-      <c r="N18">
-        <v>4</v>
-      </c>
-      <c r="O18">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>9001725.9367878195</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>2956664.7259434201</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>1104722.9240905901</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>221828.849820712</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>867375.79371816304</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>4763642.2113631703</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>4306380.2970872</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>1759153.1836135299</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>2131680.66565764</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>2599504.59954353</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>5960612.1618234897</v>
       </c>
-      <c r="N19">
-        <v>5</v>
-      </c>
-      <c r="O19">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>7155072.5198078603</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>3699729.3316604402</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>1025974.3866963499</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>127045.744007462</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>876543.93480601301</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>4472084.0689401897</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>4279723.7137319203</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>1921557.24305047</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>2170187.5712388</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>2104009.8787848102</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>4718073.8271269295</v>
       </c>
-      <c r="N20">
-        <v>6</v>
-      </c>
-      <c r="O20">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>7853856.91772597</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>4410618.8461750597</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>1383313.4152583</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>113584.935296362</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>1136421.2377979499</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>5266197.2437947597</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>4102617.7700412702</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>1921895.1692975401</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>2176100.4537759</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>2777536.6642374001</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>3935554.7315359199</v>
       </c>
-      <c r="N21">
-        <v>7</v>
-      </c>
-      <c r="O21">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1891</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>7155072.5198078603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>5359892.1864588102</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>4163286.3217143202</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>1151772.4617492601</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>99334.058000417906</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>1058166.4642288899</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>4498398.2164803399</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>3543257.9897829001</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>2477971.8593459502</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>2718842.1561726201</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>2651949.0163150998</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>3492006.1385279</v>
       </c>
       <c r="N22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1892</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>3699729.3316604402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>6029866.81253698</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>4011371.7431446598</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>1215786.6156007899</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>79380.7172305438</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>1135727.5231641999</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>4632448.61485775</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>3880009.1441545398</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>2056200.5101787299</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>2292240.7847428098</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>2405136.2504617199</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>2432277.03250045</v>
       </c>
       <c r="N23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1893</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1025974.3866963499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>5433803.4604282305</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>4242282.7598806797</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>1330892.2085649101</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>74902.572119804405</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>1230257.4845243299</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>4668686.2238101102</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>4706205.7202497097</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>2605836.9584173099</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>2499577.76792558</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>2690163.4779675901</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>2318765.22116298</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1894</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>127045.744007462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>5934118.0321390601</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>4141531.8150773002</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>1185638.2934827199</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>78090.098782192901</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>1060482.77991491</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>4958095.8512782399</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>4219268.3820101004</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>2665320.9472482898</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>2805462.6647003898</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>2478614.8125989302</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>1823754.5201473499</v>
       </c>
       <c r="N25">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1895</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>876543.93480601301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>5521409.2848477503</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>3059891.3208783399</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>1212966.7333618801</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>65552.218871372199</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>1209203.00686352</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>5385504.4836622002</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>3926747.4148730701</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>2725608.0520950099</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>3023675.5274326401</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>2662454.9148177998</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>1468763.28419114</v>
       </c>
       <c r="N26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O26">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1896</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>4472084.0689401897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>5354747.7717072004</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>3066853.0348412399</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>1299277.4336528401</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>79389.705406661393</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>1277458.6668221999</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>4944106.4261258096</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>3845755.1576789101</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>3701549.03539048</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>3526526.0150754</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>3365534.02786397</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>856651.53585864196</v>
       </c>
-      <c r="N27">
-        <v>13</v>
-      </c>
-      <c r="O27">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="2">
+        <v>7</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1897</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>4279723.7137319203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>5224853.7039613202</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>2405851.9460691898</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>1268169.2782560999</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>93235.237511163607</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>1419938.6792594499</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>4613962.1301555997</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>3764881.90732096</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>3137227.5104914801</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>2893548.8201924302</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>3014195.4908608398</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>784148.036141049</v>
       </c>
       <c r="N28">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="O28">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1898</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1921557.24305047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>6507077.9261537604</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>2385195.5882752901</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>1315860.1942179301</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>129693.853631961</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>1216874.40048335</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>4793459.1835546196</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>3807772.6495582699</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>3964467.8219048399</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>4173640.4680122002</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>2348303.25261591</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>813736.60062694503</v>
       </c>
       <c r="N29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O29">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1899</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>2170187.5712388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>4902876.1745207496</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>1983461.0762161501</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>1148785.2772250201</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>138556.820741123</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>1488156.26166547</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>5016092.2465764098</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>4047388.6178618302</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>3821658.9957853002</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>3357380.9658484501</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>2752422.4979110998</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>534333.68638116296</v>
       </c>
       <c r="N30">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O30">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1900</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>2104009.8787848102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>5010093.5584451398</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>2346273.62741698</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>1245560.8924798099</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>146715.51605392501</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>1196086.9257101801</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>4570406.8094090596</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>4933431.2129186997</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>3348819.1905820598</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>3449202.0241643698</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>2916898.3311689901</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>493946.22529484902</v>
       </c>
       <c r="N31">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O31">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>4718073.8271269295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>4418329.6095037097</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>3636812.6964565199</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>1092493.3151259101</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>109597.63186118301</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>1729196.68871389</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>4677430.6508742096</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>3688479.7611864898</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>5153852.8069480704</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>2923792.5668724198</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>2602993.30239886</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>428903.74235694599</v>
       </c>
       <c r="N32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O32">
-        <v>1908</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>4887676.8002134496</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>3090946.5545124598</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>1152812.4353691901</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>96180.016174860793</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>1712962.6272988799</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>4673651.7979643196</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>3962650.90741777</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>3592485.4856440499</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>3691222.6594374101</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>3297299.8096916</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>444874.816270968</v>
       </c>
       <c r="N33">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O33">
-        <v>1909</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>4541535.1270988397</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>3158393.0429190402</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>1163693.1192650001</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>56647.980724803303</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>1671440.9037468601</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>4905534.4764597397</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>4685083.0460285395</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>4000753.4602233302</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>3483627.4577369201</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>3069859.2098576301</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>346661.88043548301</v>
       </c>
       <c r="N34">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O34">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>3881298.0375971198</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>3273421.0765929502</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>1190394.4877343299</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>112769.466801752</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>1314211.59101944</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>5694775.5841573197</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>4406821.4132900899</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>5099765.1069448898</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>3735490.5456845099</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>3352761.4852148099</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>327061.32130870502</v>
       </c>
       <c r="N35">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O35">
-        <v>1911</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>5733892.7310245801</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>4497452.1648067301</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>1310066.1228313299</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>451063.880524676</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>1638479.8902606601</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>4689352.5374964401</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>4803988.5607318599</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>3795843.4483326902</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>3116161.6812610999</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <v>2987584.3162599099</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <v>233099.07308433199</v>
       </c>
       <c r="N36">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O36">
-        <v>1912</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>4712014.6415339997</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>4138690.8766761799</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>1017310.92788467</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>520774.84535648901</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>1510191.66002232</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>5157187.7664716998</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>5284581.9905112302</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>4240499.2312619099</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>3557500.13758804</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <v>3178735.8774047601</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>266621.06103768299</v>
       </c>
       <c r="N37">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O37">
-        <v>1913</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>5553658.5421214299</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>3381191.4545354</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>1203523.6384216901</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>536439.77178990596</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>1645979.5348966499</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>5224788.3907750202</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>5539322.98509211</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>4426239.9921127399</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>3691810.49105134</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>3013510.9068578999</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>275232.74616081</v>
       </c>
       <c r="N38">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O38">
-        <v>1914</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>5451589.0584797999</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>4818339.3157110196</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>1118014.61628974</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>611563.22931821505</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>1753296.1734865699</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>4877269.2274188502</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>5122792.1391332299</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>4376902.4033377599</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>3100603.882152</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <v>2807096.59257214</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <v>299900.57240010798</v>
       </c>
       <c r="N39">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O39">
-        <v>1915</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>6081984.8147313902</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>6350762.7994617801</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>1154524.5903525399</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>636131.63259924098</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>1761960.8038869801</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>4755214.7158713099</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>5223558.7703168197</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>4342524.2542869002</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>3585582.1660436601</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <v>3242516.2988229902</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <v>316673.38021619699</v>
       </c>
       <c r="N40">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O40">
-        <v>1916</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>7195378.7723353002</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>6096126.9849403398</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>1083841.61496208</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>348491.247473047</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>1686866.22895667</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>3961194.8650476602</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>4643404.54326858</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>3505055.3824808402</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>3401493.9793056399</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>2583552.1433498398</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <v>337217.01311192103</v>
       </c>
       <c r="N41">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O41">
-        <v>1917</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>6732108.3893249501</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>4409297.1295379503</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>1076417.8870617</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>262197.13125662197</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>1444019.8613874801</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>3958725.64499301</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>4335677.46728634</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>3358195.7626873502</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>4120866.9980296101</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>2955798.71509013</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="3">
         <v>283654.21158098098</v>
       </c>
       <c r="N42">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O42">
-        <v>1918</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>6739127.6165409703</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>3535783.0303289001</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>1187609.30352353</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>213508.21292747199</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>1585328.1185787499</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>4432591.8452312304</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>4314781.9540945301</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>2755977.4067680002</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>4245763.5391736897</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>3381521.4312502798</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <v>377706.75440917502</v>
       </c>
       <c r="N43">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O43">
-        <v>1919</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>6704946.2770559303</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>4511605.6676400602</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>1093780.0392604901</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>176787.646866853</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>1724420.4900991099</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>4259479.0490410496</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <v>4206974.6331699602</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>2276277.27703</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>4221013.1243008897</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <v>3040421.8707496598</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="3">
         <v>468876.70782435301</v>
       </c>
       <c r="N44">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O44">
-        <v>1920</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>6814017.6971540796</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>4242982.0535245603</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>1162830.24650271</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>198299.089522291</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>1805237.02070259</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>4497928.3176481901</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>3877312.3636178598</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>2130670.2569264499</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>4451821.6162300399</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>3151137.7523075901</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>463281.39871905401</v>
       </c>
       <c r="N45">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O45">
-        <v>1921</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>6269595.7641620999</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>3007132.5922055701</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>1070051.0141785</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>222535.46940130999</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>1620527.41163579</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>3732009.0943165701</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>4557088.0750432303</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>2488123.5779747702</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>4176543.8289680001</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <v>3326870.4712022701</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="3">
         <v>453680.46852609998</v>
       </c>
       <c r="N46">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="O46">
-        <v>1922</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>6221726.0316038802</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>4000809.1210904899</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>1035410.3199891601</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>249268.94730090199</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>1818873.11604137</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>5156012.4139050804</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>5066263.6323242402</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>2365469.8101266702</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>4099772.4781021201</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>3632414.22493451</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="3">
         <v>547529.62213816098</v>
       </c>
       <c r="N47">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O47">
-        <v>1923</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>7121311.3441529404</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>5808957.8607322704</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>1285818.98405414</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>247114.37263613299</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>1587920.8516586099</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>4395961.99195207</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>4161677.7082320498</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>1641321.6172996301</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>3988512.2564998101</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <v>3285065.3245325098</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="3">
         <v>610763.65332727204</v>
       </c>
       <c r="N48">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O48">
-        <v>1924</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>5799258.2387322802</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>4497273.7080325102</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>1004049.17963061</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>290574.47138284799</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>1650999.64126145</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>4675523.7568457602</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>4282141.5846056603</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>1781466.74884161</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>4023464.7341211298</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>3574881.02116617</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>605982.42516618397</v>
       </c>
       <c r="N49">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O49">
-        <v>1925</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>5612364.99568203</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>4289419.67315148</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>1211704.7483448701</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>328923.83118277602</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>1657954.8015721999</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>4090742.0013546799</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>4197953.1176968198</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>1598858.66692355</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>4058446.0407724199</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <v>2849896.7501403098</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="3">
         <v>766468.188128512</v>
       </c>
       <c r="N50">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O50">
-        <v>1926</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>4684198.2006660504</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>6072218.0186833497</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>1206548.5388646801</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>523053.61140909902</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>1485976.43873192</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>4368540.3442274397</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <v>4163374.0601025298</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>1363424.9909079699</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>3557912.3061994701</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <v>3132906.79640823</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="3">
         <v>774008.58966168796</v>
       </c>
       <c r="N51">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O51">
-        <v>1927</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>5136203.5127877304</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>5055017.3688945901</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>1266582.5092626801</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>501307.77907190501</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>1701053.3399990599</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>4053596.5233499599</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <v>4396232.0926191499</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>1551923.98987283</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>4261947.9019313296</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>2880865.6965147601</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="3">
         <v>692112.75859880401</v>
       </c>
       <c r="N52">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O52">
-        <v>1928</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>5140412.9731080299</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>5202932.4977878099</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>1077043.4281427001</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>742749.518591478</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>1360913.12607481</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <v>4578662.8346379995</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <v>5140553.9993012501</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>1348461.33069655</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>4104258.0348712099</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>2946295.84664186</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="3">
         <v>636500.31931851304</v>
       </c>
       <c r="N53">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O53">
-        <v>1929</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>4527530.3486624304</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>3628352.6079139099</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>1281368.2365375501</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>751024.30774724996</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>1308657.5231816999</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>4596814.7509023901</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <v>4995435.3881659396</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>1583262.97038093</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>4161432.3568803798</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <v>3095462.4828813798</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="3">
         <v>814757.69361044897</v>
       </c>
       <c r="N54">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O54">
-        <v>1930</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>4605012.0551394299</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>4391107.7343453802</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>1206337.57794319</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>958280.29847630102</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>1407239.0399086201</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>5428425.95824535</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="3">
         <v>5663338.5454227095</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>1459500.93077635</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>3925597.7937834002</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <v>3429087.6426072</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="3">
         <v>709484.89868660097</v>
       </c>
       <c r="N55">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O55">
-        <v>1931</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>5699027.6430964498</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>4953210.0428651497</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>951215.05252477201</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>551446.79701668699</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>1598758.86843592</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>4122316.7561601</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>5224629.8768485002</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>1517999.7436583899</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>4069605.2744794898</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <v>3241584.4049513401</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="3">
         <v>751915.90712433599</v>
       </c>
       <c r="N56">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O56">
-        <v>1932</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>5806851.8157157004</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>4095010.80402426</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>1287818.77871971</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>529383.04257442802</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>1493556.7267626701</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <v>4726233.3846705202</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <v>6601395.02097122</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>1128863.3815703499</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>3634099.9163598199</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <v>3519060.1075629801</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="3">
         <v>710665.93093632802</v>
       </c>
       <c r="N57">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O57">
-        <v>1933</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>7335717.6148747904</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>3200682.6708298</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>928694.28624753503</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>343162.33420815098</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>1863055.8531017201</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>4602482.9416188598</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <v>5485468.9756268002</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>1484030.1268559401</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
         <v>3799718.1345742298</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
         <v>3417603.3795443201</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="3">
         <v>652672.244733784</v>
       </c>
       <c r="N58">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O58">
-        <v>1934</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>6895626.27801592</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>4729671.3595706904</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>1141767.0221329599</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>323946.15543781198</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>1539732.50297339</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>6066523.4774492001</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="3">
         <v>5589744.3968099402</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>1448651.21642164</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="3">
         <v>3623061.1854391401</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <v>3237189.3061390701</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="3">
         <v>751686.60918129003</v>
       </c>
       <c r="N59">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O59">
-        <v>1935</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>7205917.66689674</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>4098613.9944901001</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>1106921.80828003</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>340225.94446082797</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>1728069.03462389</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <v>4811686.0920173395</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="3">
         <v>4490797.75983054</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="3">
         <v>1798545.60669833</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="3">
         <v>4045245.2825840102</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="3">
         <v>2910328.6050900999</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="3">
         <v>729458.87622003199</v>
       </c>
       <c r="N60">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O60">
-        <v>1936</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>8357333.13740288</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>3738777.4400309101</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>1029648.15904485</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>368303.74513105198</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>1980660.7977350601</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>4658269.5500461897</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <v>5933192.2851168504</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>1626418.9394239399</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>3693153.1941899601</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <v>2739379.0407802002</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="3">
         <v>982461.99667229794</v>
       </c>
       <c r="N61">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O61">
-        <v>1937</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>7058340.1148014497</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>4681093.5338043096</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>1177672.5585111999</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>409046.15007879399</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>1405781.06876916</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
         <v>5136847.5168359503</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="3">
         <v>4946829.1063915798</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <v>1622147.2517411499</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="3">
         <v>5879367.3549371799</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <v>2619648.5555128902</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="3">
         <v>1021883.61208626</v>
       </c>
       <c r="N62">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O62">
-        <v>1938</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>6949664.5918184305</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>6003271.0153175602</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>1073394.6274723499</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>462794.09983257402</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>1485232.05274856</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>5656127.47080376</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>5502262.0492629297</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>1749208.83275156</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="3">
         <v>4100568.7146330602</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <v>3022542.9720695098</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="3">
         <v>1385149.5839287799</v>
       </c>
       <c r="N63">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O63">
-        <v>1939</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>6624041.3889636304</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>5331219.2219134001</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>903714.73294647003</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>449282.80987487198</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>1530721.61963549</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <v>4528695.6201255899</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <v>5311957.5868982598</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>1998262.4408671199</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="3">
         <v>4350263.0484632598</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <v>3076596.14569746</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="3">
         <v>1319395.0677561599</v>
       </c>
       <c r="N64">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O64">
-        <v>1940</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>7504137.2837453401</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>3730279.8261333602</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>1168477.4827726299</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>434961.215489358</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>1428260.6546839699</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="3">
         <v>4816636.6173515199</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="3">
         <v>5392329.0618917001</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>1580795.64059458</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="3">
         <v>4046568.8792547002</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <v>3195824.93856268</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="3">
         <v>1763420.2667513799</v>
       </c>
       <c r="N65">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O65">
-        <v>1941</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>6794469.9555743998</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>3198724.3423025599</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>1013812.22101507</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>772093.30440157501</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>1684711.20182925</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <v>6073019.3470814303</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <v>5829811.1453055199</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="3">
         <v>2017782.0835786001</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="3">
         <v>4039584.8792182901</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="3">
         <v>3584640.1475213501</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="3">
         <v>1934888.91397524</v>
       </c>
       <c r="N66">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O66">
-        <v>1942</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>5979819.6353887599</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>2358900.1373328301</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>906104.09586402203</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>847028.31852227601</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>1714927.7367436399</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <v>4757505.3114971397</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="3">
         <v>6591142.4743267</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>1897401.5956136901</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="3">
         <v>4307134.7306710603</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="3">
         <v>3354746.0658116401</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="3">
         <v>2359159.6203449499</v>
       </c>
       <c r="N67">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O67">
-        <v>1943</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>6660774.5746133896</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>4180882.22046897</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>916844.48078141594</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>965389.287117498</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>1495247.79848568</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="3">
         <v>4550002.3635104699</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="3">
         <v>5738765.7330464805</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="3">
         <v>1642622.44758662</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="3">
         <v>3676526.3039491</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="3">
         <v>2845380.2277138098</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="3">
         <v>2827605.5840555499</v>
       </c>
       <c r="N68">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O68">
-        <v>1944</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>7471104.39639303</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>4029746.4202083498</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>951701.31463655003</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>893940.34293433104</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>1712794.99517058</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="3">
         <v>4634918.6315655299</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="3">
         <v>4932070.6001037396</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="3">
         <v>1274595.89410543</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="3">
         <v>4033860.7853381899</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="3">
         <v>2923500.1465115198</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="3">
         <v>2769134.9692601999</v>
       </c>
       <c r="N69">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O69">
-        <v>1945</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>7844730.2258665897</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>3344064.9283310301</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>1011429.11740484</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>1007215.41057502</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>1559770.4942606201</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="3">
         <v>5253611.3169523003</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="3">
         <v>5852651.5345222801</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="3">
         <v>1618434.2315204199</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="3">
         <v>4407105.3680421896</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="3">
         <v>3500723.6598370299</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="3">
         <v>3621269.4124980499</v>
       </c>
       <c r="N70">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O70">
-        <v>1946</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>6705834.8677706197</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>5627473.5480565298</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>966792.78676005197</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>749492.36375224602</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>1676527.1089763001</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <v>4967531.2121820496</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="3">
         <v>5881007.3996865703</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="3">
         <v>1520337.3637524899</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="3">
         <v>4353511.1065567099</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="3">
         <v>2853437.9672058602</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="3">
         <v>3982257.6786853299</v>
       </c>
       <c r="N71">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O71">
-        <v>1947</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>6274325.5215550298</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>3997998.1768354299</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>806324.47107712005</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>695855.853369936</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <v>1651184.38747662</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
         <v>4492476.3445158498</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="3">
         <v>5094861.6831187103</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="3">
         <v>1742777.84733201</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="3">
         <v>4548482.7749966402</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="3">
         <v>2941821.6293388298</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="3">
         <v>4919290.6350577204</v>
       </c>
       <c r="N72">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O72">
-        <v>1948</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>6519749.7729833303</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>3058686.8109347699</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>885350.16866432305</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>656861.08161725104</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>1483971.7032172901</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <v>4891106.7620199397</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="3">
         <v>5005718.1893647099</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="3">
         <v>1486023.61692261</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="3">
         <v>4625970.8933049897</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
         <v>2905967.41213415</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="3">
         <v>4246106.9029669398</v>
       </c>
       <c r="N73">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O73">
-        <v>1949</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>6007143.1988935499</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>3543927.74242617</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>744563.68615137402</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>482573.21401887399</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>1579884.1282452401</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="3">
         <v>4319459.55906823</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="3">
         <v>5551897.6872828295</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="3">
         <v>1255382.5931587201</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="3">
         <v>3843331.8039022102</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="3">
         <v>3632389.67055408</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="3">
         <v>7277343.9181489004</v>
       </c>
       <c r="N74">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O74">
-        <v>1950</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>6325005.0622706702</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>5486852.5952128097</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>871259.48762876296</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>512412.812817748</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <v>1612741.79824999</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
         <v>4672294.0479405299</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="3">
         <v>5996839.3659950802</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="3">
         <v>1414601.0406835701</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="3">
         <v>4341390.4506015703</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="3">
         <v>2751522.2435704302</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="3">
         <v>6229801.4123501703</v>
       </c>
       <c r="N75">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O75">
-        <v>1951</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>5927952.7082070298</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>4755800.8910144102</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>1003194.00292794</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>573767.84126082098</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>1528642.97487773</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
         <v>5574582.2025276804</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="3">
         <v>5722788.9549572803</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="3">
         <v>1408236.7185438699</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="3">
         <v>4856310.5234192004</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="3">
         <v>2853664.39119012</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="3">
         <v>6867135.9547557496</v>
       </c>
       <c r="N76">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O76">
-        <v>1952</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>7755031.05147014</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>3767519.2456589299</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>869476.92583569698</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>1131435.95975289</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>1762842.98439565</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="3">
         <v>4632886.5338210296</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="3">
         <v>4442446.79534778</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="3">
         <v>886663.06822493998</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="3">
         <v>5487570.90673526</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="3">
         <v>2851605.26535853</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="3">
         <v>7983697.1451699696</v>
       </c>
       <c r="N77">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O77">
-        <v>1953</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>6608714.8456607703</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>4879225.3736412004</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>955498.65626028902</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>1526912.50089134</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>1397083.5862116001</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="3">
         <v>4684632.9444621904</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="3">
         <v>5133532.1204394205</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="3">
         <v>1029966.14051998</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="3">
         <v>4285166.2573444797</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
         <v>2938420.2327167802</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="3">
         <v>9838998.6834687293</v>
       </c>
       <c r="N78">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="O78">
-        <v>1954</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>7274489.8049886199</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>4656382.6944533996</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>890494.23081397696</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>1599344.0465873899</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>1684535.64971894</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="3">
         <v>4521907.5765068</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="3">
         <v>5514528.0257299198</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <v>1117592.4408889399</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="3">
         <v>4609734.5364925005</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
         <v>2953450.7911998699</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="3">
         <v>9191264.9343128093</v>
       </c>
       <c r="N79">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O79">
-        <v>1955</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>6254891.4158694996</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>4083769.9978901199</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>833889.996475928</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>1448252.1497607499</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>1260988.19567052</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="3">
         <v>5232555.0678556999</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="3">
         <v>6121027.5918437699</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="3">
         <v>839828.86751524406</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="3">
         <v>4895080.0935924398</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="3">
         <v>3098468.0149808698</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="3">
         <v>8881486.82600547</v>
       </c>
       <c r="N80">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O80">
-        <v>1956</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>5836394.8741022004</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>5147474.4285388496</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>917346.54598197096</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>1357397.7501654101</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>1820500.9758434501</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="3">
         <v>4885778.8808354205</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="3">
         <v>6328850.5784854703</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="3">
         <v>1013586.97220243</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="3">
         <v>5139246.1993226204</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="3">
         <v>2865518.9086621101</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="3">
         <v>10375227.206969</v>
       </c>
       <c r="N81">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O81">
-        <v>1957</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>7460387.02304086</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>4049795.63751755</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>953851.50078349595</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>1152617.59289819</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>1359227.8574653501</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="3">
         <v>4661598.9262877498</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="3">
         <v>5109325.69171701</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="3">
         <v>667508.78635469906</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="3">
         <v>4462355.2074921401</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
         <v>2795893.0766588701</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="3">
         <v>8797724.8739869799</v>
       </c>
       <c r="N82">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O82">
-        <v>1958</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>6270292.5191265801</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="3">
         <v>4042987.4531474798</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>1003386.88466256</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>922627.57460595702</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>1733568.0585426399</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="3">
         <v>4625370.9704312403</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="3">
         <v>5435863.0733550899</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="3">
         <v>482410.86690640298</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="3">
         <v>4168859.7543391301</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="3">
         <v>2768882.5334635801</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="3">
         <v>11813436.130785599</v>
       </c>
       <c r="N83">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O83">
-        <v>1959</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>6473389.2988428399</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="3">
         <v>5259898.9497721503</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>795189.45822290704</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>1042689.64622858</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>1509887.0753839</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
         <v>5050937.7730087703</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="3">
         <v>4829758.34616601</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="3">
         <v>566117.666514816</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="3">
         <v>4812999.9040902397</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="3">
         <v>3374143.1819783198</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="3">
         <v>10942143.738414001</v>
       </c>
       <c r="N84">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O84">
-        <v>1960</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>6083537.9495518496</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="3">
         <v>4463346.8903498203</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>813099.40373387595</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>808061.950907349</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>1675857.7349406399</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="3">
         <v>4876659.07767756</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="3">
         <v>4950619.7363100201</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="3">
         <v>306322.63129936298</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="3">
         <v>4885597.2062595496</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="3">
         <v>2440950.54753209</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="3">
         <v>10551278.2093224</v>
       </c>
       <c r="N85">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O85">
-        <v>1961</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>7060648.3027638197</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="3">
         <v>4350549.8468780098</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>956632.950600993</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>769792.51054012205</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>1452857.6710564201</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
         <v>5146901.4770886404</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="3">
         <v>4995950.1443159804</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="3">
         <v>301385.93804169103</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="3">
         <v>5093338.9266728302</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="3">
         <v>2473894.0348863602</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="3">
         <v>12596010.6068353</v>
       </c>
       <c r="N86">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O86">
-        <v>1962</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>6994402.1276319502</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="3">
         <v>3595531.0014509601</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>856903.52925938298</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>661535.36904406396</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>1480886.0086685501</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
         <v>4809804.9820679501</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="3">
         <v>4276123.4226720203</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="3">
         <v>289073.29146300699</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="3">
         <v>4100527.26739262</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
         <v>3109429.3179411101</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="3">
         <v>13069047.8529022</v>
       </c>
       <c r="N87">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O87">
-        <v>1963</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>7183887.8985581202</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="3">
         <v>3591196.9520362201</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>937539.55429747701</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>592115.99412449403</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>1341680.75856144</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
         <v>5606798.3230476398</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="3">
         <v>4483670.8859896502</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="3">
         <v>307205.64987465501</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="3">
         <v>4963941.7141657202</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="3">
         <v>3676873.8269543601</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="3">
         <v>13640563.442939701</v>
       </c>
       <c r="N88">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O88">
-        <v>1964</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>6246115.1602662699</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
         <v>6534555.5149537995</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>806405.62822360103</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>493748.24543474999</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>1748275.04676039</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>5055336.2076798398</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="3">
         <v>5188961.6924400404</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <v>232862.417770826</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="3">
         <v>4871064.5352251101</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <v>3835050.4707920901</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="3">
         <v>11668292.115802299</v>
       </c>
       <c r="N89">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O89">
-        <v>1965</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>6653961.8306453004</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
         <v>4417066.4298781296</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>709212.44928051403</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>673293.28533942497</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>1694568.6622679301</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>4331201.5159303602</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="3">
         <v>4637232.2376795402</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <v>218674.54624778201</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="3">
         <v>4513022.47989868</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <v>2858758.6222860701</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="3">
         <v>13302225.552592101</v>
       </c>
       <c r="N90">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O90">
-        <v>1966</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>6305764.1790231997</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>3355054.5771499001</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>836541.05786225095</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>655568.65099404403</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>1744664.0118829201</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>5237026.4420515904</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="3">
         <v>5869208.3993925396</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <v>154168.289570038</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="3">
         <v>4306501.9302184898</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <v>3109636.8338811002</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="3">
         <v>12893468.346973199</v>
       </c>
       <c r="N91">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O91">
-        <v>1967</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>7245901.7570367297</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>4691422.4898167402</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>870096.25849197304</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>730607.47739807598</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>1567793.9695917999</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>5717484.4278314598</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="3">
         <v>5731264.0036366899</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <v>90990.9799188412</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="3">
         <v>4259507.2118428797</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <v>2589252.1793192499</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="3">
         <v>15514379.002048301</v>
       </c>
       <c r="N92">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O92">
-        <v>1968</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>7353507.45848836</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>6475910.7574061602</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>829236.56318542804</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>676923.40415453503</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>1453466.9247057501</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>4472675.7230262896</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="3">
         <v>5952072.6825607996</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <v>92490.718174399197</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="3">
         <v>3696387.4245899101</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <v>3596782.45452108</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="3">
         <v>13495946.9786171</v>
       </c>
       <c r="N93">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O93">
-        <v>1969</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>5764502.47244443</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>3217991.5469399299</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>764106.36190079805</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>647217.680416257</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>1691283.35088572</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>3982801.8394078398</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="3">
         <v>6914524.9941753801</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <v>67445.304480538995</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="3">
         <v>4321127.9900511904</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <v>3132108.1755910502</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="3">
         <v>15983973.901665701</v>
       </c>
       <c r="N94">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O94">
-        <v>1970</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>7266090.2829131801</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <v>5343562.9425093504</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>757417.06786833203</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>488539.77847242501</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>1514318.5871286499</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>4906452.7021764098</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="3">
         <v>6237075.1437836802</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="3">
         <v>47077.263372523703</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="3">
         <v>4595987.5943879299</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <v>3146499.2579250601</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="3">
         <v>13420380.8324052</v>
       </c>
       <c r="N95">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O95">
-        <v>1971</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>5553446.1446157703</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
         <v>5345676.1494483603</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>892083.55416395096</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>478299.081401187</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>1674565.32018492</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>5566111.3961130204</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="3">
         <v>5368721.3942438802</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="3">
         <v>66337.077859417797</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="3">
         <v>3666559.1458339398</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <v>3591448.0267354199</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="3">
         <v>14329592.720545899</v>
       </c>
       <c r="N96">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O96">
-        <v>1972</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>6549270.3032204602</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>3770810.0600065798</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>858436.73766759597</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>485199.68024256203</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>1556867.4552808399</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <v>5794549.0155795095</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="3">
         <v>5026729.4753539199</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="3">
         <v>59349.346249289301</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="3">
         <v>3449422.4683677098</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <v>2928584.3638112699</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="3">
         <v>12244087.4153315</v>
       </c>
       <c r="N97">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O97">
-        <v>1973</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>6274510.1695673997</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
         <v>3557210.04964743</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>973110.41231601895</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>367636.39259193599</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>1920934.2525359001</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>4193627.9422694198</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="3">
         <v>4727583.9445036901</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <v>46841.516296682799</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="3">
         <v>3967522.1812964301</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <v>3062670.21920441</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="3">
         <v>15707015.876952101</v>
       </c>
       <c r="N98">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O98">
-        <v>1974</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>6818819.1391392304</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
         <v>3283605.4374358901</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>956755.87213668495</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>356013.41364726698</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>1660425.89246143</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>5094217.5950817596</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="3">
         <v>5381441.6209515501</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <v>30716.6822414614</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="3">
         <v>4612076.6326971902</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <v>3144411.0836139098</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="3">
         <v>13875435.5327179</v>
       </c>
       <c r="N99">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O99">
-        <v>1975</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>6693142.7548284596</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
         <v>2694414.0614519701</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>939996.70733898203</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>364788.61375177401</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>1628886.0186938001</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>4843375.4385566805</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="3">
         <v>5063378.8978528799</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <v>21600.321993357</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="3">
         <v>4400100.2196708899</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <v>3154795.1887371801</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="3">
         <v>13544434.438010201</v>
       </c>
       <c r="N100">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O100">
-        <v>1976</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>7512271.9291533204</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
         <v>4037208.7228965298</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>851309.84277187299</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>321948.15082432498</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>1523666.0816474101</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <v>5574409.08366453</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="3">
         <v>5268996.0878169602</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="3">
         <v>18577.6751031696</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="3">
         <v>3881873.1134246001</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <v>3129481.2371960999</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="3">
         <v>18281249.267049499</v>
       </c>
       <c r="N101">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O101">
-        <v>1977</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>7166944.1832572902</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
         <v>4884187.4950653696</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>1031113.05986309</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>243346.156655106</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>1739103.2243480301</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <v>4308799.4535291102</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="3">
         <v>5798002.8396272799</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="3">
         <v>17276.718052113501</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="3">
         <v>3603461.0303772199</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <v>3106334.9665250001</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="3">
         <v>15213696.2416046</v>
       </c>
       <c r="N102">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O102">
-        <v>1978</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>6669877.3273404501</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
         <v>3358316.13676289</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>840207.59292366798</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>302999.47398630402</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>1974620.2942303901</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>4711516.3147263601</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="3">
         <v>4630346.4181565102</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="3">
         <v>10784.3735655247</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="3">
         <v>5065521.1663425202</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <v>3455036.7940712702</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="3">
         <v>14567058.8846792</v>
       </c>
       <c r="N103">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O103">
-        <v>1979</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>6814805.7960727802</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="3">
         <v>4189295.0725871599</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>871254.01691567595</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>268634.977800211</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>1479594.0648733799</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <v>4718075.9547199598</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="3">
         <v>5314224.5966496104</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="3">
         <v>10555.7968621378</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="3">
         <v>4843383.3063372597</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="3">
         <v>3137060.02063203</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="3">
         <v>14921383.2508725</v>
       </c>
       <c r="N104">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O104">
-        <v>1980</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>6857902.4950127602</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="3">
         <v>3372338.2014665501</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
         <v>843053.07353646797</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>222105.15201208601</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="3">
         <v>1620625.7762253999</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="3">
         <v>5240497.25189457</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="3">
         <v>4777777.8761941502</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="3">
         <v>17290.424415616999</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="3">
         <v>4664386.82808745</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="3">
         <v>3185153.46722613</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="3">
         <v>14681037.7389482</v>
       </c>
       <c r="N105">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O105">
-        <v>1981</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <v>6743760.68820321</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="3">
         <v>5116111.9126869403</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
         <v>1125231.07780844</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>267323.33409340802</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
         <v>1390723.4074707101</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
         <v>5499603.1693929899</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="3">
         <v>7447543.3872690499</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="3">
         <v>17925.476910467802</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="3">
         <v>4353654.1706256103</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="3">
         <v>3133558.7679659999</v>
       </c>
-      <c r="L106">
+      <c r="L106" s="3">
         <v>16132167.784109101</v>
       </c>
       <c r="N106">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O106">
-        <v>1982</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>7178638.1352600604</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="3">
         <v>4159956.20414232</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="3">
         <v>958645.85227898299</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>242324.64298323399</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="3">
         <v>1606768.4350012599</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="3">
         <v>4713765.8114277404</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="3">
         <v>5660750.7217335002</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="3">
         <v>11264.726790573</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="3">
         <v>4822701.1513946299</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="3">
         <v>3387868.9702507001</v>
       </c>
-      <c r="L107">
+      <c r="L107" s="3">
         <v>18233332.2041572</v>
       </c>
       <c r="N107">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O107">
-        <v>1983</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>9290152.3826169092</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="3">
         <v>4725233.9336389098</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
         <v>901501.20936744101</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>233178.15006949299</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="3">
         <v>1580489.58492588</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="3">
         <v>5821270.5021067103</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="3">
         <v>5227856.5197821297</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="3">
         <v>7476.83141392158</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="3">
         <v>4034456.0468283501</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="3">
         <v>3410074.6706276801</v>
       </c>
-      <c r="L108">
+      <c r="L108" s="3">
         <v>14164872.765747201</v>
       </c>
       <c r="N108">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O108">
-        <v>1984</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>6411624.0370693002</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
         <v>4574793.7879050504</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="3">
         <v>799975.43358046201</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>242499.39917591601</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>1925327.1023641699</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="3">
         <v>5720420.0832205797</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="3">
         <v>4875370.0322861802</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="3">
         <v>7041.74489054064</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="3">
         <v>5137737.6398316501</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="3">
         <v>3026045.54604423</v>
       </c>
-      <c r="L109">
+      <c r="L109" s="3">
         <v>14729415.7510371</v>
       </c>
       <c r="N109">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O109">
-        <v>1985</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <v>7020495.2212563697</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="3">
         <v>4099100.0882905098</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
         <v>829346.03158774495</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>251198.273896403</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="3">
         <v>1778906.47918515</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="3">
         <v>5149447.8946742201</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="3">
         <v>5214570.4638409298</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="3">
         <v>6708.1675946859305</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="3">
         <v>4771052.0630291998</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="3">
         <v>3082441.9133518501</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="3">
         <v>15914951.6183841</v>
       </c>
       <c r="N110">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O110">
-        <v>1986</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="3">
         <v>7537156.0509355702</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="3">
         <v>3725176.5028856699</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="3">
         <v>953444.97056064801</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <v>260601.27675770401</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="3">
         <v>1446517.51157309</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="3">
         <v>4558222.06358233</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="3">
         <v>5091499.6693668095</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="3">
         <v>6543.9961717828101</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="3">
         <v>4030396.0257728202</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="3">
         <v>2929117.0533050699</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="3">
         <v>16103799.1546958</v>
       </c>
       <c r="N111">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O111">
-        <v>1987</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="3">
         <v>6659826.1664654603</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="3">
         <v>5272313.5839699795</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
         <v>737357.909895872</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>377295.12456166302</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
         <v>1661682.7928611201</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="3">
         <v>4806914.1738881897</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="3">
         <v>6748199.7438138397</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="3">
         <v>3751.00677130227</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="3">
         <v>4031179.5210874402</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="3">
         <v>3577326.2346918201</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="3">
         <v>15576453.8217717</v>
       </c>
       <c r="N112">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O112">
-        <v>1988</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="3">
         <v>7401819.0499791903</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="3">
         <v>4517768.7783918902</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="3">
         <v>884421.95086562296</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <v>556977.18581857497</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="3">
         <v>1561900.77851528</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="3">
         <v>4434483.2307601003</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="3">
         <v>5330851.1262419801</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="3">
         <v>3256.1437108984301</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="3">
         <v>3850484.07917808</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="3">
         <v>4220286.1618007598</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="3">
         <v>16512475.9782889</v>
       </c>
       <c r="N113">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O113">
-        <v>1989</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3">
         <v>6560307.21032013</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="3">
         <v>5750036.8055239702</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="3">
         <v>807061.34296782804</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <v>789967.46501831105</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="3">
         <v>1649358.4866376</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="3">
         <v>4701677.3381319102</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="3">
         <v>5749649.4714024402</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="3">
         <v>5867.1339219006204</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="3">
         <v>3584361.0366131398</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="3">
         <v>4139173.3963116999</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="3">
         <v>14703144.5385822</v>
       </c>
       <c r="N114">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O114">
-        <v>1990</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3">
         <v>6205582.4500355497</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="3">
         <v>4228927.1871068003</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="3">
         <v>983382.23462248396</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <v>831132.56406052597</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="3">
         <v>1715969.6917125699</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="3">
         <v>4490869.0368793402</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="3">
         <v>5924201.1760360301</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="3">
         <v>7461.4368379934203</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="3">
         <v>4366097.5589417098</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="3">
         <v>3754038.3577585299</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="3">
         <v>13789198.6523492</v>
       </c>
       <c r="N115">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O115">
-        <v>1991</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3">
         <v>6437005.2127157496</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="3">
         <v>4415708.38802322</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="3">
         <v>932237.53170628601</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <v>756740.06027177302</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="3">
         <v>1500832.9476240501</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="3">
         <v>4432144.3081973204</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="3">
         <v>5636796.0127699198</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="3">
         <v>10870.7249296026</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="3">
         <v>3808968.4755119402</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="3">
         <v>3382331.49771538</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="3">
         <v>17257089.990299899</v>
       </c>
       <c r="N116">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O116">
-        <v>1992</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="3">
         <v>7650070.66660666</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="3">
         <v>3806462.61736815</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="3">
         <v>904261.55303517799</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <v>760167.78243110795</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="3">
         <v>1611471.768475</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="3">
         <v>5424992.2466766899</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="3">
         <v>5610436.0106741199</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="3">
         <v>17138.648418814901</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="3">
         <v>4429829.6026275</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="3">
         <v>4298293.3321476402</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="3">
         <v>15124708.7619802</v>
       </c>
       <c r="N117">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O117">
-        <v>1993</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="3">
         <v>5832840.3669761699</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="3">
         <v>3496478.95230575</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="3">
         <v>763924.14342044597</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <v>758640.55254772701</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="3">
         <v>1716525.0468035899</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="3">
         <v>3993676.8194847801</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="3">
         <v>5226348.5212431299</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="3">
         <v>20581.528862409599</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="3">
         <v>4416137.2498996696</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="3">
         <v>3950984.70261729</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="3">
         <v>17746051.703166399</v>
       </c>
       <c r="N118">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O118">
-        <v>1994</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3">
         <v>7518211.02468393</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="3">
         <v>3567827.90938929</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="3">
         <v>984624.68429228396</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="3">
         <v>834216.72627079894</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="3">
         <v>1897368.1920306999</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="3">
         <v>5091818.8128562402</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="3">
         <v>5450524.2549562296</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="3">
         <v>29446.381487409799</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="3">
         <v>4768708.3935948601</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="3">
         <v>2980931.3548204298</v>
       </c>
-      <c r="L119">
+      <c r="L119" s="3">
         <v>14842255.230390999</v>
       </c>
       <c r="N119">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O119">
-        <v>1995</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3">
         <v>5912893.4555669799</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="3">
         <v>5590290.3008028399</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="3">
         <v>812651.88436264498</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="3">
         <v>547999.72768002294</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="3">
         <v>1787279.34822807</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="3">
         <v>4775723.7522941101</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="3">
         <v>5706072.8718741704</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="3">
         <v>41878.321273542198</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="3">
         <v>4243657.4711905401</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="3">
         <v>3867637.96371675</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="3">
         <v>17527733.755282599</v>
       </c>
       <c r="N120">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O120">
-        <v>1996</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="3">
         <v>7304126.2836668398</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="3">
         <v>6076496.2229029704</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="3">
         <v>915080.37415160495</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="3">
         <v>684878.775645638</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="3">
         <v>1689817.8998755801</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="3">
         <v>4241977.4642900303</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="3">
         <v>5584446.9807908498</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="3">
         <v>51332.364877232001</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="3">
         <v>5291268.8092070799</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="3">
         <v>3179238.9685295001</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="3">
         <v>15257030.233889399</v>
       </c>
       <c r="N121">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O121">
-        <v>1997</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3">
         <v>6220915.5490302499</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="3">
         <v>4783344.8646200104</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="3">
         <v>901201.08127692703</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="3">
         <v>647935.682682666</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="3">
         <v>1706399.0082521399</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="3">
         <v>5509112.9578060703</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="3">
         <v>5442695.3571869796</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="3">
         <v>50383.549872379903</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="3">
         <v>4702409.7143907398</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="3">
         <v>3911500.0355953099</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="3">
         <v>14761545.136234401</v>
       </c>
       <c r="N122">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O122">
-        <v>1998</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <v>6681414.6739034597</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="3">
         <v>3934932.8952316698</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="3">
         <v>1003368.39975927</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="3">
         <v>591872.88387751603</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="3">
         <v>1499076.8805603699</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="3">
         <v>5087669.1862335103</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="3">
         <v>4368160.0041945204</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="3">
         <v>66570.901165936593</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="3">
         <v>4739480.4649313902</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="3">
         <v>3678517.6091707498</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="3">
         <v>15279393.224383701</v>
       </c>
       <c r="N123">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O123">
-        <v>1999</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="3">
         <v>6326864.7686494598</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="3">
         <v>6056137.7206133101</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="3">
         <v>872778.16873481404</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <v>627872.66623085295</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="3">
         <v>1517605.3067323901</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="3">
         <v>4416494.2792162597</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="3">
         <v>5869666.3818510398</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="3">
         <v>75992.342549455105</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="3">
         <v>5441628.36187799</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="3">
         <v>4870889.7133732103</v>
       </c>
-      <c r="L124">
+      <c r="L124" s="3">
         <v>17382965.926514398</v>
       </c>
       <c r="N124">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O124">
-        <v>2000</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3">
         <v>5786065.6556767104</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="3">
         <v>6030707.5457134498</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="3">
         <v>767716.52890617005</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="3">
         <v>672836.63807910099</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="3">
         <v>1651879.6675235</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="3">
         <v>4517493.5707628597</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="3">
         <v>6141569.5894974796</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="3">
         <v>72518.184939787301</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="3">
         <v>4596129.0251432098</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="3">
         <v>3695090.4683763199</v>
       </c>
-      <c r="L125">
+      <c r="L125" s="3">
         <v>17154889.133997001</v>
       </c>
       <c r="N125">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O125">
-        <v>2001</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3">
         <v>6942587.3593759704</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="3">
         <v>4701978.6585156498</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="3">
         <v>737750.15880168695</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <v>669418.80392507405</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="3">
         <v>2012749.71880581</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="3">
         <v>4508880.2416740097</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="3">
         <v>5118128.8217444103</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="3">
         <v>95885.157791989506</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="3">
         <v>5839297.5043261796</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="3">
         <v>4349899.0700524999</v>
       </c>
-      <c r="L126">
+      <c r="L126" s="3">
         <v>17715315.3118711</v>
       </c>
       <c r="N126">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O126">
-        <v>2002</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <v>6824743.7652276298</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="3">
         <v>3930259.3525456502</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="3">
         <v>870696.78281620599</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="3">
         <v>736603.84815998201</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="3">
         <v>1542269.7672194401</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="3">
         <v>5288758.5875640903</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="3">
         <v>6498407.8545660404</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="3">
         <v>93910.771016740895</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="3">
         <v>3593151.6971297301</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="3">
         <v>3884257.2241287702</v>
       </c>
-      <c r="L127">
+      <c r="L127" s="3">
         <v>17648860.240293302</v>
       </c>
       <c r="N127">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O127">
-        <v>2003</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <v>6934927.0196684804</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="3">
         <v>4953086.3632162698</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="3">
         <v>850088.27279228205</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="3">
         <v>827347.54411328305</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="3">
         <v>1454113.19809612</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="3">
         <v>4462997.6882670503</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="3">
         <v>5221528.3466898398</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="3">
         <v>125815.47226344699</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="3">
         <v>3877228.6664955802</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="3">
         <v>3425928.9231383498</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="3">
         <v>14554751.7714839</v>
       </c>
       <c r="N128">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O128">
-        <v>2004</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <v>7290114.6459184503</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="3">
         <v>4660548.2613927703</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="3">
         <v>948234.45502931299</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="3">
         <v>881295.06230466894</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="3">
         <v>1716531.1847794601</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="3">
         <v>4976905.5453992104</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="3">
         <v>5118953.2320518699</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="3">
         <v>126651.925992205</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="3">
         <v>4333213.2276323996</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="3">
         <v>3853774.3075828701</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="3">
         <v>18195996.890974399</v>
       </c>
       <c r="N129">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O129">
-        <v>2005</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3">
         <v>5606467.8749933597</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="3">
         <v>3044469.6570832198</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="3">
         <v>920536.68573925598</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="3">
         <v>824286.04540362605</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="3">
         <v>1579873.64182496</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="3">
         <v>4388541.48972484</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="3">
         <v>5903977.0064313803</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="3">
         <v>145406.433633401</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="3">
         <v>4562874.5162709001</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="3">
         <v>3942175.4420328299</v>
       </c>
-      <c r="L130">
+      <c r="L130" s="3">
         <v>16720513.7437612</v>
       </c>
       <c r="N130">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O130">
-        <v>2006</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="3">
         <v>8730923.8587285895</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="3">
         <v>3908967.7217083899</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="3">
         <v>807334.73936959403</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="3">
         <v>779735.72290194</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="3">
         <v>1566107.63969845</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="3">
         <v>4685479.0037593199</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="3">
         <v>5438302.9216360301</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="3">
         <v>149974.46163515199</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="3">
         <v>5247736.1176243303</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="3">
         <v>3770657.9199490598</v>
       </c>
-      <c r="L131">
+      <c r="L131" s="3">
         <v>16113359.5545395</v>
       </c>
       <c r="N131">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O131">
-        <v>2007</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3">
         <v>6251607.0393429697</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="3">
         <v>4778276.1093114698</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="3">
         <v>738709.47648955695</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="3">
         <v>769300.580021156</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="3">
         <v>1733700.33003013</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="3">
         <v>5207266.2113501998</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="3">
         <v>6045491.7172476901</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="3">
         <v>145100.38307782399</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="3">
         <v>4918703.4748791996</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="3">
         <v>3447954.7758607501</v>
       </c>
-      <c r="L132">
+      <c r="L132" s="3">
         <v>16103414.6059184</v>
       </c>
       <c r="N132">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O132">
-        <v>2008</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3">
         <v>6426847.5061500696</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="3">
         <v>3766467.0958275902</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="3">
         <v>909377.66998580401</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="3">
         <v>672053.63850481098</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="3">
         <v>1635878.3811059999</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="3">
         <v>4810432.4635645105</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="3">
         <v>5733485.9987340299</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="3">
         <v>149448.48640957</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="3">
         <v>5494866.2735986896</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="3">
         <v>3654676.1459441502</v>
       </c>
-      <c r="L133">
+      <c r="L133" s="3">
         <v>16847497.125809301</v>
       </c>
       <c r="N133">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O133">
-        <v>2009</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="3">
         <v>7279052.2435768396</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="3">
         <v>4078241.86510015</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="3">
         <v>859259.20741208503</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="3">
         <v>770276.05369147297</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="3">
         <v>1602450.8938140401</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="3">
         <v>4517303.6185128102</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="3">
         <v>5898302.8989627203</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="3">
         <v>150242.626988756</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="3">
         <v>5293620.2063276898</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="3">
         <v>3260376.9737865101</v>
       </c>
-      <c r="L134">
+      <c r="L134" s="3">
         <v>15556993.9512915</v>
       </c>
       <c r="N134">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O134">
-        <v>2010</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="3">
         <v>7059600.4748061104</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="3">
         <v>3943941.6521889898</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="3">
         <v>803054.45120578201</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="3">
         <v>951196.36112973501</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="3">
         <v>1756448.1291002601</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="3">
         <v>4276180.3482210403</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="3">
         <v>5395745.8892305903</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="3">
         <v>177248.33728286799</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="3">
         <v>5191891.9071012596</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="3">
         <v>3283043.19079648</v>
       </c>
-      <c r="L135">
+      <c r="L135" s="3">
         <v>17000627.420424599</v>
       </c>
       <c r="N135">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O135">
-        <v>2011</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <v>6974908.5526541397</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="3">
         <v>3613387.25602582</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="3">
         <v>840134.34381849295</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="3">
         <v>898661.63672278298</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="3">
         <v>1558260.7754097001</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="3">
         <v>4468690.6666972004</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="3">
         <v>6830040.1563660298</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="3">
         <v>182824.572636328</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="3">
         <v>4768220.7953051701</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="3">
         <v>3751593.66474764</v>
       </c>
-      <c r="L136">
+      <c r="L136" s="3">
         <v>14741200.1302907</v>
       </c>
       <c r="N136">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O136">
-        <v>2012</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3">
         <v>5792715.0415887199</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="3">
         <v>5983801.7586811399</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="3">
         <v>1073969.8520778201</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="3">
         <v>941140.25257234904</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="3">
         <v>1628813.81836861</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="3">
         <v>4667411.1488630502</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="3">
         <v>4304326.2455307199</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="3">
         <v>204868.466446765</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="3">
         <v>5189844.4161472796</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="3">
         <v>4016200.5567647698</v>
       </c>
-      <c r="L137">
+      <c r="L137" s="3">
         <v>17910095.3944555</v>
       </c>
       <c r="N137">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O137">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="3">
         <v>6883275.0006207898</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="3">
         <v>5363742.2622024799</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="3">
         <v>915162.67465214105</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="3">
         <v>1049330.07181088</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="3">
         <v>1775323.4566389499</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="3">
         <v>5059507.7946945103</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="3">
         <v>5173830.3708411101</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="3">
         <v>240947.41154556701</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="3">
         <v>4661206.0170729803</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="3">
         <v>3024037.08578269</v>
       </c>
-      <c r="L138">
+      <c r="L138" s="3">
         <v>17985253.123635799</v>
       </c>
       <c r="N138">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O138">
-        <v>2014</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="3">
         <v>7089707.6855809595</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="3">
         <v>4609881.74568268</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="3">
         <v>831128.44773433299</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="3">
         <v>1018674.27233323</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="3">
         <v>1537644.31715718</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="3">
         <v>4730149.5064208601</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="3">
         <v>6586567.5117151001</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="3">
         <v>234345.68470392399</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="3">
         <v>4457869.1233454198</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="3">
         <v>3006313.1003649798</v>
       </c>
-      <c r="L139">
+      <c r="L139" s="3">
         <v>15875033.642437801</v>
       </c>
       <c r="N139">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O139">
-        <v>2015</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <v>7280229.9541124804</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="3">
         <v>4737102.9708284503</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="3">
         <v>879864.74769253097</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="3">
         <v>940093.77617010602</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="3">
         <v>1643393.36128831</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="3">
         <v>4922487.0932611097</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="3">
         <v>5086829.9189899396</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="3">
         <v>292136.51342660998</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="3">
         <v>4874075.4406932099</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="3">
         <v>3407865.9470077902</v>
       </c>
-      <c r="L140">
+      <c r="L140" s="3">
         <v>17867294.582612801</v>
       </c>
       <c r="N140">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O140">
-        <v>2016</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3">
         <v>6440827.7079420602</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="3">
         <v>3930658.5348238801</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="3">
         <v>1097304.6887811101</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="3">
         <v>1173585.4414037999</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="3">
         <v>1495135.8308198799</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="3">
         <v>5157855.6741420804</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="3">
         <v>5266759.21067027</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="3">
         <v>243401.343383506</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="3">
         <v>4821815.0069439001</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="3">
         <v>3861191.18697761</v>
       </c>
-      <c r="L141">
+      <c r="L141" s="3">
         <v>16572965.6437675</v>
       </c>
       <c r="N141">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O141">
-        <v>2017</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3">
         <v>5615463.6894666301</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="3">
         <v>4641951.9280363601</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="3">
         <v>889096.50984519604</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="3">
         <v>1299761.1943933701</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="3">
         <v>1540372.10896452</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="3">
         <v>4464253.4186009504</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="3">
         <v>5196181.8701687399</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="3">
         <v>260785.13713509601</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="3">
         <v>4888038.5083369296</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="3">
         <v>3002856.01981343</v>
       </c>
-      <c r="L142">
+      <c r="L142" s="3">
         <v>17543045.7156206</v>
       </c>
       <c r="N142">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O142">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3">
         <v>5503878.3373003798</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="3">
         <v>4251030.6745407302</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="3">
         <v>940547.67514502699</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="3">
         <v>1183615.38667127</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="3">
         <v>1608957.06587831</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="3">
         <v>5178644.2113700202</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="3">
         <v>5032370.6678217202</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="3">
         <v>223603.585853047</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="3">
         <v>4311759.6148659298</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="3">
         <v>3421485.0592817101</v>
       </c>
-      <c r="L143">
+      <c r="L143" s="3">
         <v>20694639.445465799</v>
       </c>
       <c r="N143">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O143">
-        <v>2019</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="3">
         <v>5544078.0890481602</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="3">
         <v>5649277.9409290301</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="3">
         <v>700527.48893322202</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="3">
         <v>1347010.7184093799</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="3">
         <v>2036464.3184257301</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="3">
         <v>4146255.1173339901</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="3">
         <v>5802908.4807912102</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="3">
         <v>246482.754471044</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="3">
         <v>4482763.2587704305</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="3">
         <v>3357981.4311758899</v>
       </c>
-      <c r="L144">
+      <c r="L144" s="3">
         <v>16295558.331198899</v>
       </c>
       <c r="N144">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O144">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="3">
         <v>7249008.2704384103</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="3">
         <v>4477778.0034577204</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="3">
         <v>834199.53774074896</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="3">
         <v>1257502.14078057</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="3">
         <v>1785181.56141547</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="3">
         <v>4150005.6636261898</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="3">
         <v>5879050.1367296996</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="3">
         <v>262857.41785907198</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="3">
         <v>5183990.9843725702</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="3">
         <v>3463742.9455196899</v>
       </c>
-      <c r="L145">
+      <c r="L145" s="3">
         <v>17482111.339158099</v>
+      </c>
+      <c r="N145">
+        <v>125</v>
+      </c>
+      <c r="O145">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L147" s="1">
+        <f>SUM(B145:L145)</f>
+        <v>52025428.001098245</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>